--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_1_18.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_1_18.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>402487.9804829011</v>
+        <v>458295.8117627173</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17254715.44216108</v>
+        <v>16597726.15245798</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>492028.9342484454</v>
+        <v>492028.9342484448</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7994349.697822787</v>
+        <v>8000662.829591248</v>
       </c>
     </row>
     <row r="11">
@@ -656,22 +656,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22.03657478005869</v>
+        <v>246.0992099406688</v>
       </c>
       <c r="C2" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D2" t="n">
-        <v>31.5506869772999</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E2" t="n">
         <v>29.43699739328775</v>
       </c>
       <c r="F2" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
-        <v>285.8594785580453</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -719,13 +719,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>400.806900043077</v>
+        <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="3">
@@ -814,7 +814,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
         <v>170.8360944016073</v>
@@ -829,13 +829,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G4" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>108.137158445047</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -865,19 +865,19 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>157.6803779622394</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
         <v>242.9378371199217</v>
@@ -896,22 +896,22 @@
         <v>22.03657478005869</v>
       </c>
       <c r="C5" t="n">
-        <v>33.76104808841092</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D5" t="n">
-        <v>424.2958575201043</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E5" t="n">
-        <v>424.2958575201043</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
-        <v>324.8729715994713</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G5" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -959,10 +959,10 @@
         <v>0.8069000430770075</v>
       </c>
       <c r="X5" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>4.203262463343094</v>
+        <v>148.1221594290542</v>
       </c>
     </row>
     <row r="6">
@@ -1051,19 +1051,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>56.32307449456664</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>163.9353622244306</v>
@@ -1072,7 +1072,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,22 +1099,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>284.0859530482738</v>
+        <v>261.8540460339239</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
         <v>242.9378371199217</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>45.50790004567258</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C8" t="n">
         <v>33.76104808841092</v>
@@ -1139,19 +1139,19 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F8" t="n">
-        <v>23.58875529488432</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1184,22 +1184,22 @@
         <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>400.806900043077</v>
+        <v>69.81654101781173</v>
       </c>
       <c r="X8" t="n">
-        <v>414.9510387864824</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="9">
@@ -1288,10 +1288,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D10" t="n">
         <v>164.2192128704925</v>
@@ -1303,7 +1303,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H10" t="n">
         <v>138.5031525665292</v>
@@ -1336,16 +1336,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S10" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>184.1049308930544</v>
+        <v>101.7706336613758</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V10" t="n">
         <v>284.0859530482738</v>
@@ -1357,7 +1357,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="11">
@@ -1376,7 +1376,7 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>161.4258646586666</v>
       </c>
       <c r="F11" t="n">
         <v>423.5887552948843</v>
@@ -1385,7 +1385,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H11" t="n">
-        <v>236.0942751322848</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I11" t="n">
         <v>0.4126214791313976</v>
@@ -1421,7 +1421,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
         <v>256.6300796561533</v>
@@ -1540,7 +1540,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170476</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
@@ -1576,7 +1576,7 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>18.05677735225706</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1622,7 +1622,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H14" t="n">
-        <v>101.0430753545943</v>
+        <v>18.227720276594</v>
       </c>
       <c r="I14" t="n">
         <v>0.4126214791313976</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
         <v>217.8665548556918</v>
@@ -1762,7 +1762,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>170.8360944016073</v>
@@ -1771,7 +1771,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E16" t="n">
-        <v>133.3857454398439</v>
+        <v>149.7411312962242</v>
       </c>
       <c r="F16" t="n">
         <v>174.9399834978613</v>
@@ -1783,7 +1783,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,10 +1813,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U16" t="n">
         <v>275.6486707394257</v>
@@ -1847,7 +1847,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
-        <v>431.5506869772999</v>
+        <v>246.7675307998106</v>
       </c>
       <c r="E17" t="n">
         <v>429.4369973932878</v>
@@ -1862,7 +1862,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1910,7 +1910,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
-        <v>219.0074848067226</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="18">
@@ -2014,13 +2014,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>163.9353622244306</v>
+        <v>24.34318456170516</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,10 +2050,10 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
-        <v>173.7040795765152</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U19" t="n">
         <v>275.6486707394257</v>
@@ -2093,13 +2093,13 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
-        <v>347.6518966631699</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H20" t="n">
         <v>286.2388530112159</v>
       </c>
       <c r="I20" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2132,7 +2132,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U20" t="n">
         <v>256.6300796561533</v>
@@ -2147,7 +2147,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
-        <v>404.2032624633431</v>
+        <v>136.1921297287213</v>
       </c>
     </row>
     <row r="21">
@@ -2251,13 +2251,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,16 +2284,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225751</v>
       </c>
       <c r="T22" t="n">
         <v>243.4206519573293</v>
       </c>
       <c r="U22" t="n">
-        <v>191.0148624863768</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V22" t="n">
         <v>284.0859530482738</v>
@@ -2479,13 +2479,13 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
         <v>163.9353622244306</v>
@@ -2494,7 +2494,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>61.06386613909888</v>
+        <v>5.990622819018719</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2533,7 +2533,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V25" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>269.3061403695714</v>
@@ -2710,7 +2710,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>189.9004325317972</v>
+        <v>186.7535668023739</v>
       </c>
       <c r="C28" t="n">
         <v>170.8360944016073</v>
@@ -2728,10 +2728,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,13 +2758,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>35.20092700998597</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U28" t="n">
         <v>275.6486707394257</v>
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>189.9004325317972</v>
+        <v>86.74508580040339</v>
       </c>
       <c r="C31" t="n">
         <v>170.8360944016073</v>
@@ -2959,13 +2959,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2998,7 +2998,7 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>18.05677735225706</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T31" t="n">
         <v>243.4206519573293</v>
@@ -3184,10 +3184,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>189.9004325317972</v>
+        <v>82.64119670414975</v>
       </c>
       <c r="C34" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
         <v>164.2192128704925</v>
@@ -3202,7 +3202,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3235,7 +3235,7 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>18.0567773522574</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
         <v>243.4206519573293</v>
@@ -3281,7 +3281,7 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H35" t="n">
-        <v>286.2388530112168</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I35" t="n">
         <v>0.4126214791313976</v>
@@ -3424,10 +3424,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
-        <v>86.4861367946209</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E37" t="n">
         <v>168.0604237117701</v>
@@ -3442,7 +3442,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,10 +3469,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225773</v>
       </c>
       <c r="T37" t="n">
         <v>243.4206519573293</v>
@@ -3503,7 +3503,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
-        <v>433.7610480884109</v>
+        <v>433.7610480884118</v>
       </c>
       <c r="D38" t="n">
         <v>431.5506869772999</v>
@@ -3667,7 +3667,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E40" t="n">
-        <v>168.0604237117701</v>
+        <v>28.46824604904421</v>
       </c>
       <c r="F40" t="n">
         <v>174.9399834978613</v>
@@ -3709,7 +3709,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>18.05677735225796</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T40" t="n">
         <v>243.4206519573293</v>
@@ -3737,28 +3737,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>422.0365747800587</v>
+        <v>422.0365747800588</v>
       </c>
       <c r="C41" t="n">
-        <v>433.7610480884109</v>
+        <v>433.761048088411</v>
       </c>
       <c r="D41" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869773</v>
       </c>
       <c r="E41" t="n">
-        <v>429.4369973932878</v>
+        <v>429.4369973932879</v>
       </c>
       <c r="F41" t="n">
-        <v>423.5887552948843</v>
+        <v>423.5887552948844</v>
       </c>
       <c r="G41" t="n">
-        <v>397.3838530629687</v>
+        <v>397.3838530629689</v>
       </c>
       <c r="H41" t="n">
-        <v>286.2388530112159</v>
+        <v>286.238853011216</v>
       </c>
       <c r="I41" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791314857</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,22 +3788,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800145</v>
       </c>
       <c r="T41" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U41" t="n">
-        <v>256.6300796561533</v>
+        <v>256.6300796561534</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>358.9907805655118</v>
       </c>
       <c r="W41" t="n">
-        <v>400.806900043077</v>
+        <v>400.8069000430771</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864824</v>
+        <v>414.9510387864825</v>
       </c>
       <c r="Y41" t="n">
         <v>404.2032624633431</v>
@@ -3901,13 +3901,13 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
         <v>163.9353622244306</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>199.3487361229529</v>
+        <v>199.4201398804792</v>
       </c>
       <c r="U43" t="n">
         <v>275.6486707394257</v>
@@ -3974,28 +3974,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>422.0365747800587</v>
+        <v>422.0365747800588</v>
       </c>
       <c r="C44" t="n">
-        <v>433.7610480884109</v>
+        <v>433.761048088411</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869772999</v>
+        <v>431.5506869773</v>
       </c>
       <c r="E44" t="n">
-        <v>429.4369973932878</v>
+        <v>429.4369973932879</v>
       </c>
       <c r="F44" t="n">
-        <v>423.5887552948843</v>
+        <v>423.5887552948844</v>
       </c>
       <c r="G44" t="n">
-        <v>397.3838530629687</v>
+        <v>397.3838530629689</v>
       </c>
       <c r="H44" t="n">
-        <v>286.2388530112159</v>
+        <v>286.238853011216</v>
       </c>
       <c r="I44" t="n">
-        <v>0.4126214791313976</v>
+        <v>0.4126214791314857</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>82.81535507800136</v>
+        <v>82.81535507800145</v>
       </c>
       <c r="T44" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U44" t="n">
-        <v>256.6300796561533</v>
+        <v>256.6300796561534</v>
       </c>
       <c r="V44" t="n">
-        <v>358.9907805655117</v>
+        <v>358.9907805655118</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>400.8069000430771</v>
       </c>
       <c r="X44" t="n">
-        <v>414.9510387864824</v>
+        <v>414.9510387864825</v>
       </c>
       <c r="Y44" t="n">
-        <v>404.2032624633431</v>
+        <v>404.2032624633432</v>
       </c>
     </row>
     <row r="45">
@@ -4135,7 +4135,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C46" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>164.2192128704925</v>
@@ -4144,7 +4144,7 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
-        <v>174.9399834978613</v>
+        <v>67.68074767021176</v>
       </c>
       <c r="G46" t="n">
         <v>163.9353622244306</v>
@@ -4153,7 +4153,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>157.6489550149833</v>
@@ -4189,7 +4189,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U46" t="n">
-        <v>131.5141848153392</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V46" t="n">
         <v>284.0859530482738</v>
@@ -4198,7 +4198,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y46" t="n">
         <v>225.1454739790328</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>442.640221925911</v>
+        <v>1782.575933334008</v>
       </c>
       <c r="C2" t="n">
-        <v>408.5381531497384</v>
+        <v>1344.433460517431</v>
       </c>
       <c r="D2" t="n">
-        <v>376.668772364587</v>
+        <v>908.5236756918757</v>
       </c>
       <c r="E2" t="n">
-        <v>346.9344315632862</v>
+        <v>878.789334890575</v>
       </c>
       <c r="F2" t="n">
-        <v>323.107406012898</v>
+        <v>450.9219052997828</v>
       </c>
       <c r="G2" t="n">
-        <v>34.36045797446834</v>
+        <v>49.52407392304664</v>
       </c>
       <c r="H2" t="n">
-        <v>34.36045797446834</v>
+        <v>49.52407392304664</v>
       </c>
       <c r="I2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018665</v>
       </c>
       <c r="J2" t="n">
-        <v>453.9965675465116</v>
+        <v>484.3619720031045</v>
       </c>
       <c r="K2" t="n">
-        <v>687.9235674375537</v>
+        <v>1092.064618311664</v>
       </c>
       <c r="L2" t="n">
-        <v>687.9235674375537</v>
+        <v>1092.064618311664</v>
       </c>
       <c r="M2" t="n">
-        <v>687.9235674375537</v>
+        <v>1092.064618311664</v>
       </c>
       <c r="N2" t="n">
-        <v>687.9235674375537</v>
+        <v>1092.064618311664</v>
       </c>
       <c r="O2" t="n">
-        <v>1107.976466382457</v>
+        <v>1132.008730489121</v>
       </c>
       <c r="P2" t="n">
-        <v>1107.976466382457</v>
+        <v>1739.711376797681</v>
       </c>
       <c r="Q2" t="n">
-        <v>1528.02936532736</v>
+        <v>2286.210162756276</v>
       </c>
       <c r="R2" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509333</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509333</v>
       </c>
       <c r="T2" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509333</v>
       </c>
       <c r="U2" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509333</v>
       </c>
       <c r="V2" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509333</v>
       </c>
       <c r="W2" t="n">
-        <v>1292.327975491451</v>
+        <v>2454.54917696077</v>
       </c>
       <c r="X2" t="n">
-        <v>873.1855120707613</v>
+        <v>2035.406713540081</v>
       </c>
       <c r="Y2" t="n">
-        <v>464.8993883704147</v>
+        <v>2031.160993880138</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>540.1154135929012</v>
+        <v>555.2790295414794</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295435</v>
+        <v>448.8225683781217</v>
       </c>
       <c r="D3" t="n">
-        <v>338.5686635760967</v>
+        <v>353.732279524675</v>
       </c>
       <c r="E3" t="n">
-        <v>244.4482489030504</v>
+        <v>259.6118648516287</v>
       </c>
       <c r="F3" t="n">
-        <v>161.0644105192121</v>
+        <v>176.2280264677903</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539593</v>
+        <v>90.84293673397417</v>
       </c>
       <c r="H3" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018665</v>
       </c>
       <c r="I3" t="n">
-        <v>60.00734176206595</v>
+        <v>75.17095771064425</v>
       </c>
       <c r="J3" t="n">
-        <v>384.5656667282782</v>
+        <v>399.7292826768566</v>
       </c>
       <c r="K3" t="n">
-        <v>804.6185656731816</v>
+        <v>1007.431928985416</v>
       </c>
       <c r="L3" t="n">
-        <v>804.6185656731816</v>
+        <v>1054.43532930258</v>
       </c>
       <c r="M3" t="n">
-        <v>804.6185656731816</v>
+        <v>1054.43532930258</v>
       </c>
       <c r="N3" t="n">
-        <v>804.6185656731816</v>
+        <v>1054.43532930258</v>
       </c>
       <c r="O3" t="n">
-        <v>804.6185656731816</v>
+        <v>1054.43532930258</v>
       </c>
       <c r="P3" t="n">
-        <v>1159.957753041174</v>
+        <v>1054.43532930258</v>
       </c>
       <c r="Q3" t="n">
-        <v>1580.010651986078</v>
+        <v>1595.174267934656</v>
       </c>
       <c r="R3" t="n">
-        <v>1697.183430080417</v>
+        <v>1712.347046028995</v>
       </c>
       <c r="S3" t="n">
-        <v>1633.7279925288</v>
+        <v>1648.891608477378</v>
       </c>
       <c r="T3" t="n">
-        <v>1503.549348859402</v>
+        <v>1518.71296480798</v>
       </c>
       <c r="U3" t="n">
-        <v>1327.21280185937</v>
+        <v>1342.376417807948</v>
       </c>
       <c r="V3" t="n">
-        <v>1128.09528392137</v>
+        <v>1143.258899869948</v>
       </c>
       <c r="W3" t="n">
-        <v>942.7725296545636</v>
+        <v>957.9361456031418</v>
       </c>
       <c r="X3" t="n">
-        <v>787.9050938934436</v>
+        <v>803.0687098420218</v>
       </c>
       <c r="Y3" t="n">
-        <v>661.4193146726643</v>
+        <v>676.5829306212426</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>884.4397056785397</v>
+        <v>931.9014488530652</v>
       </c>
       <c r="C4" t="n">
-        <v>711.8779941617646</v>
+        <v>759.3397373362901</v>
       </c>
       <c r="D4" t="n">
-        <v>546.0000013632873</v>
+        <v>593.4617445378128</v>
       </c>
       <c r="E4" t="n">
-        <v>376.2419976140245</v>
+        <v>423.7037407885501</v>
       </c>
       <c r="F4" t="n">
-        <v>199.5349435757807</v>
+        <v>246.9966867503063</v>
       </c>
       <c r="G4" t="n">
-        <v>33.94366860160834</v>
+        <v>246.9966867503063</v>
       </c>
       <c r="H4" t="n">
-        <v>33.94366860160834</v>
+        <v>137.7672337755113</v>
       </c>
       <c r="I4" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018665</v>
       </c>
       <c r="J4" t="n">
-        <v>120.5233537662982</v>
+        <v>135.6869697148765</v>
       </c>
       <c r="K4" t="n">
-        <v>120.5233537662982</v>
+        <v>410.445424286012</v>
       </c>
       <c r="L4" t="n">
-        <v>437.4083829648294</v>
+        <v>828.6553060539732</v>
       </c>
       <c r="M4" t="n">
-        <v>857.4612819097326</v>
+        <v>1288.139173234886</v>
       </c>
       <c r="N4" t="n">
-        <v>1277.514180854636</v>
+        <v>1730.397976392531</v>
       </c>
       <c r="O4" t="n">
-        <v>1697.183430080417</v>
+        <v>2150.067225618312</v>
       </c>
       <c r="P4" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509333</v>
       </c>
       <c r="Q4" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509333</v>
       </c>
       <c r="R4" t="n">
-        <v>1675.765608785789</v>
+        <v>2433.946406214704</v>
       </c>
       <c r="S4" t="n">
-        <v>1516.524240083786</v>
+        <v>2433.946406214704</v>
       </c>
       <c r="T4" t="n">
-        <v>1357.251131031019</v>
+        <v>2433.946406214704</v>
       </c>
       <c r="U4" t="n">
-        <v>1357.251131031019</v>
+        <v>2155.51340546781</v>
       </c>
       <c r="V4" t="n">
-        <v>1357.251131031019</v>
+        <v>1868.55789733824</v>
       </c>
       <c r="W4" t="n">
-        <v>1357.251131031019</v>
+        <v>1596.531492924532</v>
       </c>
       <c r="X4" t="n">
-        <v>1111.859376364431</v>
+        <v>1351.139738257944</v>
       </c>
       <c r="Y4" t="n">
-        <v>884.4397056785397</v>
+        <v>1123.720067572052</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1654.761434047123</v>
+        <v>2078.225803160042</v>
       </c>
       <c r="C5" t="n">
-        <v>1620.659365270951</v>
+        <v>1640.083330343465</v>
       </c>
       <c r="D5" t="n">
-        <v>1192.077691008219</v>
+        <v>1204.173545517909</v>
       </c>
       <c r="E5" t="n">
-        <v>763.4960167454872</v>
+        <v>770.3988006762045</v>
       </c>
       <c r="F5" t="n">
-        <v>435.3414999783445</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="G5" t="n">
-        <v>33.94366860160834</v>
+        <v>342.5313710854123</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>453.9965675465116</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K5" t="n">
-        <v>687.9235674375537</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L5" t="n">
-        <v>687.9235674375537</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="M5" t="n">
-        <v>687.9235674375537</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="N5" t="n">
-        <v>687.9235674375537</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="O5" t="n">
-        <v>687.9235674375537</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P5" t="n">
-        <v>1107.976466382457</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q5" t="n">
-        <v>1528.02936532736</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="V5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="W5" t="n">
-        <v>1696.368379531855</v>
+        <v>2669.245775882865</v>
       </c>
       <c r="X5" t="n">
-        <v>1681.26632015157</v>
+        <v>2250.103312462176</v>
       </c>
       <c r="Y5" t="n">
-        <v>1677.020600491627</v>
+        <v>2100.484969604545</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295434</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F6" t="n">
-        <v>161.064410519212</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539587</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>745.5978778793813</v>
+        <v>955.7523231022661</v>
       </c>
       <c r="C7" t="n">
-        <v>573.0361663626062</v>
+        <v>783.1906115854911</v>
       </c>
       <c r="D7" t="n">
-        <v>516.14417192365</v>
+        <v>617.3126187870138</v>
       </c>
       <c r="E7" t="n">
-        <v>516.14417192365</v>
+        <v>447.554615037751</v>
       </c>
       <c r="F7" t="n">
-        <v>339.4371178854062</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G7" t="n">
-        <v>173.8458429112338</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H7" t="n">
-        <v>33.94366860160834</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
-        <v>120.5233537662982</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K7" t="n">
-        <v>120.5233537662982</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L7" t="n">
-        <v>538.7332355342593</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M7" t="n">
-        <v>958.7861344791625</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>1378.839033424066</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O7" t="n">
-        <v>1697.183430080417</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P7" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>1697.183430080417</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S7" t="n">
-        <v>1697.183430080417</v>
+        <v>2489.401636434796</v>
       </c>
       <c r="T7" t="n">
-        <v>1697.183430080417</v>
+        <v>2243.522190013251</v>
       </c>
       <c r="U7" t="n">
-        <v>1697.183430080417</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V7" t="n">
-        <v>1410.227921950848</v>
+        <v>1700.590152868454</v>
       </c>
       <c r="W7" t="n">
-        <v>1410.227921950848</v>
+        <v>1428.563748454745</v>
       </c>
       <c r="X7" t="n">
-        <v>1164.83616728426</v>
+        <v>1183.171993788158</v>
       </c>
       <c r="Y7" t="n">
-        <v>937.4164965983684</v>
+        <v>955.7523231022661</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>560.3451554119299</v>
+        <v>1674.602188492498</v>
       </c>
       <c r="C8" t="n">
-        <v>526.2430866357573</v>
+        <v>1640.500119716325</v>
       </c>
       <c r="D8" t="n">
-        <v>90.33330181020182</v>
+        <v>1204.590334890769</v>
       </c>
       <c r="E8" t="n">
-        <v>60.59896100890105</v>
+        <v>770.8155900490646</v>
       </c>
       <c r="F8" t="n">
-        <v>36.77193545851284</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="G8" t="n">
-        <v>36.77193545851284</v>
+        <v>342.9481604582723</v>
       </c>
       <c r="H8" t="n">
-        <v>36.77193545851284</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I8" t="n">
-        <v>36.77193545851284</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>304.284604275296</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K8" t="n">
-        <v>759.3373055743924</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L8" t="n">
-        <v>759.3373055743924</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M8" t="n">
-        <v>759.3373055743924</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N8" t="n">
-        <v>759.3373055743924</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O8" t="n">
-        <v>759.3373055743924</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P8" t="n">
-        <v>1214.390006873489</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>1669.442708172585</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
-        <v>1838.596772925642</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1838.596772925642</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T8" t="n">
-        <v>1838.596772925642</v>
+        <v>2449.993599304466</v>
       </c>
       <c r="U8" t="n">
-        <v>1838.596772925642</v>
+        <v>2190.771296621483</v>
       </c>
       <c r="V8" t="n">
-        <v>1838.596772925642</v>
+        <v>2190.771296621483</v>
       </c>
       <c r="W8" t="n">
-        <v>1433.741318336675</v>
+        <v>2120.249538017633</v>
       </c>
       <c r="X8" t="n">
-        <v>1014.598854915986</v>
+        <v>2105.147478637348</v>
       </c>
       <c r="Y8" t="n">
-        <v>606.3127312156396</v>
+        <v>2100.901758977405</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>542.9436804498056</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>436.4872192864479</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>341.3969304330012</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>247.2765157599549</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>163.8926773761165</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>78.50758764230036</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>36.77193545851284</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>62.83560861897044</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>387.3939335851828</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>842.4466348842792</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>842.4466348842792</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>842.4466348842792</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>1127.786217543885</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>1127.786217543885</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1127.786217543885</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1582.838918842982</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1700.011696937322</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1636.556259385705</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1506.377615716306</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1330.041068716275</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1130.923550778274</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>945.6007965114679</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>790.733360750348</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>664.2475815295687</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>689.0171603541222</v>
+        <v>1043.799427915185</v>
       </c>
       <c r="C10" t="n">
-        <v>689.0171603541222</v>
+        <v>871.2377163984103</v>
       </c>
       <c r="D10" t="n">
-        <v>523.1391675556449</v>
+        <v>705.359723599933</v>
       </c>
       <c r="E10" t="n">
-        <v>353.3811638063821</v>
+        <v>535.6017198506702</v>
       </c>
       <c r="F10" t="n">
-        <v>176.6741097681383</v>
+        <v>358.8946658124264</v>
       </c>
       <c r="G10" t="n">
-        <v>176.6741097681383</v>
+        <v>193.303390838254</v>
       </c>
       <c r="H10" t="n">
-        <v>36.77193545851284</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I10" t="n">
-        <v>36.77193545851284</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>36.77193545851284</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>36.77193545851284</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>454.9818172264739</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>903.2278548651868</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>903.2278548651868</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1322.897104090968</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1670.40399806131</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1838.596772925642</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1838.596772925642</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S10" t="n">
-        <v>1679.355404223639</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="T10" t="n">
-        <v>1493.390827563988</v>
+        <v>2545.844385276825</v>
       </c>
       <c r="U10" t="n">
-        <v>1493.390827563988</v>
+        <v>2267.41138452993</v>
       </c>
       <c r="V10" t="n">
-        <v>1206.435319434418</v>
+        <v>1980.45587640036</v>
       </c>
       <c r="W10" t="n">
-        <v>934.4089150207097</v>
+        <v>1708.429471986652</v>
       </c>
       <c r="X10" t="n">
-        <v>689.0171603541222</v>
+        <v>1463.037717320064</v>
       </c>
       <c r="Y10" t="n">
-        <v>689.0171603541222</v>
+        <v>1235.618046634173</v>
       </c>
     </row>
     <row r="11">
@@ -5015,28 +5015,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2472.724095295528</v>
+        <v>2252.656868168568</v>
       </c>
       <c r="C11" t="n">
-        <v>2034.581622478951</v>
+        <v>1814.514395351991</v>
       </c>
       <c r="D11" t="n">
-        <v>1598.671837653395</v>
+        <v>1378.604610526435</v>
       </c>
       <c r="E11" t="n">
-        <v>1164.897092811691</v>
+        <v>1215.548181578287</v>
       </c>
       <c r="F11" t="n">
-        <v>737.0296632208983</v>
+        <v>787.680751987495</v>
       </c>
       <c r="G11" t="n">
-        <v>335.6318318441618</v>
+        <v>386.2829206107589</v>
       </c>
       <c r="H11" t="n">
-        <v>97.15276605397516</v>
+        <v>97.15276605397518</v>
       </c>
       <c r="I11" t="n">
-        <v>96.73597668111516</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="J11" t="n">
         <v>531.9906641340331</v>
@@ -5051,40 +5051,40 @@
         <v>2441.40092234507</v>
       </c>
       <c r="N11" t="n">
-        <v>2481.810506693461</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="O11" t="n">
-        <v>3461.990173263767</v>
+        <v>3421.580588915377</v>
       </c>
       <c r="P11" t="n">
-        <v>4290.300048097163</v>
+        <v>4249.890463748773</v>
       </c>
       <c r="Q11" t="n">
-        <v>4836.798834055758</v>
+        <v>4796.389249707368</v>
       </c>
       <c r="R11" t="n">
-        <v>4836.798834055758</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="S11" t="n">
-        <v>4753.146960239595</v>
+        <v>4753.146960239596</v>
       </c>
       <c r="T11" t="n">
-        <v>4753.146960239595</v>
+        <v>4533.079733112635</v>
       </c>
       <c r="U11" t="n">
-        <v>4493.924657556611</v>
+        <v>4273.857430429652</v>
       </c>
       <c r="V11" t="n">
-        <v>4131.307707490438</v>
+        <v>3911.240480363478</v>
       </c>
       <c r="W11" t="n">
-        <v>3726.452252901471</v>
+        <v>3506.385025774511</v>
       </c>
       <c r="X11" t="n">
-        <v>3307.309789480782</v>
+        <v>3087.242562353822</v>
       </c>
       <c r="Y11" t="n">
-        <v>2899.023665780435</v>
+        <v>2678.956438653475</v>
       </c>
     </row>
     <row r="12">
@@ -5112,7 +5112,7 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H12" t="n">
-        <v>96.73597668111516</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="I12" t="n">
         <v>122.7996498415728</v>
@@ -5173,40 +5173,40 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>947.2320137580463</v>
+        <v>806.2298140987274</v>
       </c>
       <c r="C13" t="n">
-        <v>774.6703022412712</v>
+        <v>633.6681025819523</v>
       </c>
       <c r="D13" t="n">
-        <v>608.792309442794</v>
+        <v>467.790109783475</v>
       </c>
       <c r="E13" t="n">
-        <v>439.0343056935313</v>
+        <v>298.0321060342123</v>
       </c>
       <c r="F13" t="n">
-        <v>262.3272516552875</v>
+        <v>121.3250519959685</v>
       </c>
       <c r="G13" t="n">
-        <v>96.73597668111516</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="H13" t="n">
-        <v>96.73597668111516</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="I13" t="n">
-        <v>96.73597668111516</v>
+        <v>96.73597668111519</v>
       </c>
       <c r="J13" t="n">
-        <v>183.315661845805</v>
+        <v>183.3156618458051</v>
       </c>
       <c r="K13" t="n">
         <v>458.0741164169406</v>
       </c>
       <c r="L13" t="n">
-        <v>876.2839981849016</v>
+        <v>876.2839981849017</v>
       </c>
       <c r="M13" t="n">
-        <v>1335.767865365814</v>
+        <v>1335.767865365815</v>
       </c>
       <c r="N13" t="n">
         <v>1778.026668523459</v>
@@ -5224,25 +5224,25 @@
         <v>2713.395586583915</v>
       </c>
       <c r="S13" t="n">
-        <v>2695.15641754123</v>
+        <v>2554.154217881911</v>
       </c>
       <c r="T13" t="n">
-        <v>2449.276971119686</v>
+        <v>2308.274771460366</v>
       </c>
       <c r="U13" t="n">
-        <v>2170.843970372791</v>
+        <v>2029.841770713471</v>
       </c>
       <c r="V13" t="n">
-        <v>1883.888462243221</v>
+        <v>1742.886262583902</v>
       </c>
       <c r="W13" t="n">
-        <v>1611.862057829513</v>
+        <v>1470.859858170193</v>
       </c>
       <c r="X13" t="n">
-        <v>1366.470303162925</v>
+        <v>1225.468103503606</v>
       </c>
       <c r="Y13" t="n">
-        <v>1139.050632477033</v>
+        <v>998.0484328177145</v>
       </c>
     </row>
     <row r="14">
@@ -5252,28 +5252,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2336.308741984729</v>
+        <v>2252.656868168567</v>
       </c>
       <c r="C14" t="n">
-        <v>1898.166269168153</v>
+        <v>1814.514395351991</v>
       </c>
       <c r="D14" t="n">
-        <v>1462.256484342597</v>
+        <v>1378.604610526435</v>
       </c>
       <c r="E14" t="n">
-        <v>1028.481739500892</v>
+        <v>944.8298656847301</v>
       </c>
       <c r="F14" t="n">
-        <v>600.6143099100996</v>
+        <v>516.9624360939379</v>
       </c>
       <c r="G14" t="n">
-        <v>199.2164785333634</v>
+        <v>115.5646047172013</v>
       </c>
       <c r="H14" t="n">
-        <v>97.15276605397516</v>
+        <v>97.15276605397517</v>
       </c>
       <c r="I14" t="n">
-        <v>96.73597668111516</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J14" t="n">
         <v>531.9906641340331</v>
@@ -5300,28 +5300,28 @@
         <v>4796.389249707368</v>
       </c>
       <c r="R14" t="n">
-        <v>4836.798834055758</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="S14" t="n">
-        <v>4836.798834055758</v>
+        <v>4753.146960239596</v>
       </c>
       <c r="T14" t="n">
-        <v>4616.731606928796</v>
+        <v>4533.079733112634</v>
       </c>
       <c r="U14" t="n">
-        <v>4357.509304245813</v>
+        <v>4273.857430429651</v>
       </c>
       <c r="V14" t="n">
-        <v>3994.892354179639</v>
+        <v>3911.240480363477</v>
       </c>
       <c r="W14" t="n">
-        <v>3590.036899590673</v>
+        <v>3506.385025774511</v>
       </c>
       <c r="X14" t="n">
-        <v>3170.894436169984</v>
+        <v>3087.242562353822</v>
       </c>
       <c r="Y14" t="n">
-        <v>2762.608312469637</v>
+        <v>2678.956438653475</v>
       </c>
     </row>
     <row r="15">
@@ -5349,7 +5349,7 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H15" t="n">
-        <v>96.73597668111516</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I15" t="n">
         <v>122.7996498415728</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1052.109260520272</v>
+        <v>1157.289801519718</v>
       </c>
       <c r="C16" t="n">
-        <v>879.5475490034967</v>
+        <v>984.7280900029428</v>
       </c>
       <c r="D16" t="n">
-        <v>713.6695562050194</v>
+        <v>818.8500972044656</v>
       </c>
       <c r="E16" t="n">
-        <v>578.9364800031568</v>
+        <v>667.5964292284815</v>
       </c>
       <c r="F16" t="n">
-        <v>402.229425964913</v>
+        <v>490.8893751902377</v>
       </c>
       <c r="G16" t="n">
-        <v>236.6381509907407</v>
+        <v>325.2981002160653</v>
       </c>
       <c r="H16" t="n">
-        <v>96.73597668111516</v>
+        <v>185.3959259064399</v>
       </c>
       <c r="I16" t="n">
-        <v>96.73597668111516</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J16" t="n">
         <v>183.315661845805</v>
@@ -5440,10 +5440,10 @@
         <v>458.0741164169406</v>
       </c>
       <c r="L16" t="n">
-        <v>876.2839981849016</v>
+        <v>876.2839981849017</v>
       </c>
       <c r="M16" t="n">
-        <v>1335.767865365814</v>
+        <v>1335.767865365815</v>
       </c>
       <c r="N16" t="n">
         <v>1778.026668523459</v>
@@ -5458,28 +5458,28 @@
         <v>2713.395586583915</v>
       </c>
       <c r="R16" t="n">
-        <v>2713.395586583914</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="S16" t="n">
-        <v>2554.154217881911</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="T16" t="n">
-        <v>2554.154217881911</v>
+        <v>2467.51614016237</v>
       </c>
       <c r="U16" t="n">
-        <v>2275.721217135016</v>
+        <v>2189.083139415475</v>
       </c>
       <c r="V16" t="n">
-        <v>1988.765709005447</v>
+        <v>1902.127631285905</v>
       </c>
       <c r="W16" t="n">
-        <v>1716.739304591738</v>
+        <v>1630.101226872197</v>
       </c>
       <c r="X16" t="n">
-        <v>1471.347549925151</v>
+        <v>1384.70947220561</v>
       </c>
       <c r="Y16" t="n">
-        <v>1243.927879239259</v>
+        <v>1157.289801519718</v>
       </c>
     </row>
     <row r="17">
@@ -5489,25 +5489,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2523.375184062124</v>
+        <v>2336.30874198473</v>
       </c>
       <c r="C17" t="n">
-        <v>2085.232711245548</v>
+        <v>1898.166269168153</v>
       </c>
       <c r="D17" t="n">
-        <v>1649.322926419992</v>
+        <v>1648.906137047132</v>
       </c>
       <c r="E17" t="n">
-        <v>1215.548181578287</v>
+        <v>1215.131392205427</v>
       </c>
       <c r="F17" t="n">
-        <v>787.6807519874951</v>
+        <v>787.263962614635</v>
       </c>
       <c r="G17" t="n">
-        <v>386.2829206107589</v>
+        <v>385.8661312378989</v>
       </c>
       <c r="H17" t="n">
-        <v>97.15276605397517</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I17" t="n">
         <v>96.73597668111518</v>
@@ -5522,19 +5522,19 @@
         <v>2441.40092234507</v>
       </c>
       <c r="M17" t="n">
-        <v>2441.40092234507</v>
+        <v>2481.810506693462</v>
       </c>
       <c r="N17" t="n">
-        <v>2441.40092234507</v>
+        <v>2481.810506693462</v>
       </c>
       <c r="O17" t="n">
-        <v>3421.580588915377</v>
+        <v>3461.990173263768</v>
       </c>
       <c r="P17" t="n">
-        <v>4249.890463748773</v>
+        <v>4290.300048097164</v>
       </c>
       <c r="Q17" t="n">
-        <v>4796.389249707368</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="R17" t="n">
         <v>4836.798834055759</v>
@@ -5555,10 +5555,10 @@
         <v>3590.036899590674</v>
       </c>
       <c r="X17" t="n">
-        <v>3170.894436169984</v>
+        <v>3170.894436169985</v>
       </c>
       <c r="Y17" t="n">
-        <v>2949.674754547032</v>
+        <v>2762.608312469638</v>
       </c>
     </row>
     <row r="18">
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1035.891962983371</v>
+        <v>806.2298140987276</v>
       </c>
       <c r="C19" t="n">
-        <v>863.330251466596</v>
+        <v>633.6681025819526</v>
       </c>
       <c r="D19" t="n">
-        <v>697.4522586681187</v>
+        <v>467.7901097834753</v>
       </c>
       <c r="E19" t="n">
-        <v>527.6942549188559</v>
+        <v>298.0321060342126</v>
       </c>
       <c r="F19" t="n">
-        <v>350.9872008806122</v>
+        <v>121.3250519959688</v>
       </c>
       <c r="G19" t="n">
-        <v>185.3959259064399</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="H19" t="n">
-        <v>185.3959259064399</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I19" t="n">
         <v>96.73597668111518</v>
@@ -5698,25 +5698,25 @@
         <v>2713.395586583915</v>
       </c>
       <c r="S19" t="n">
-        <v>2713.395586583915</v>
+        <v>2554.154217881911</v>
       </c>
       <c r="T19" t="n">
-        <v>2537.93692034501</v>
+        <v>2308.274771460367</v>
       </c>
       <c r="U19" t="n">
-        <v>2259.503919598115</v>
+        <v>2029.841770713472</v>
       </c>
       <c r="V19" t="n">
-        <v>1972.548411468546</v>
+        <v>1742.886262583902</v>
       </c>
       <c r="W19" t="n">
-        <v>1700.522007054837</v>
+        <v>1470.859858170194</v>
       </c>
       <c r="X19" t="n">
-        <v>1455.13025238825</v>
+        <v>1225.468103503606</v>
       </c>
       <c r="Y19" t="n">
-        <v>1227.710581702358</v>
+        <v>998.0484328177147</v>
       </c>
     </row>
     <row r="20">
@@ -5726,25 +5726,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2472.724095295529</v>
+        <v>2523.375184062125</v>
       </c>
       <c r="C20" t="n">
-        <v>2034.581622478951</v>
+        <v>2085.232711245548</v>
       </c>
       <c r="D20" t="n">
-        <v>1598.671837653396</v>
+        <v>1649.322926419992</v>
       </c>
       <c r="E20" t="n">
-        <v>1164.897092811691</v>
+        <v>1215.548181578287</v>
       </c>
       <c r="F20" t="n">
-        <v>737.0296632208988</v>
+        <v>787.6807519874951</v>
       </c>
       <c r="G20" t="n">
-        <v>385.8661312378989</v>
+        <v>386.2829206107589</v>
       </c>
       <c r="H20" t="n">
-        <v>96.73597668111518</v>
+        <v>97.15276605397517</v>
       </c>
       <c r="I20" t="n">
         <v>96.73597668111518</v>
@@ -5759,19 +5759,19 @@
         <v>2441.40092234507</v>
       </c>
       <c r="M20" t="n">
-        <v>2441.40092234507</v>
+        <v>2481.810506693462</v>
       </c>
       <c r="N20" t="n">
-        <v>2441.40092234507</v>
+        <v>2481.810506693462</v>
       </c>
       <c r="O20" t="n">
-        <v>3421.580588915377</v>
+        <v>3461.990173263768</v>
       </c>
       <c r="P20" t="n">
-        <v>4249.890463748773</v>
+        <v>4290.300048097164</v>
       </c>
       <c r="Q20" t="n">
-        <v>4796.389249707368</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="R20" t="n">
         <v>4836.798834055759</v>
@@ -5780,22 +5780,22 @@
         <v>4753.146960239596</v>
       </c>
       <c r="T20" t="n">
-        <v>4753.146960239596</v>
+        <v>4533.079733112634</v>
       </c>
       <c r="U20" t="n">
-        <v>4493.924657556612</v>
+        <v>4273.857430429651</v>
       </c>
       <c r="V20" t="n">
-        <v>4131.307707490439</v>
+        <v>3911.240480363478</v>
       </c>
       <c r="W20" t="n">
-        <v>3726.452252901472</v>
+        <v>3506.385025774511</v>
       </c>
       <c r="X20" t="n">
-        <v>3307.309789480783</v>
+        <v>3087.242562353822</v>
       </c>
       <c r="Y20" t="n">
-        <v>2899.023665780436</v>
+        <v>2949.674754547033</v>
       </c>
     </row>
     <row r="21">
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>870.300688009199</v>
+        <v>947.2320137580464</v>
       </c>
       <c r="C22" t="n">
-        <v>697.7389764924239</v>
+        <v>774.6703022412713</v>
       </c>
       <c r="D22" t="n">
-        <v>531.8609836939467</v>
+        <v>608.792309442794</v>
       </c>
       <c r="E22" t="n">
-        <v>362.1029799446836</v>
+        <v>439.0343056935313</v>
       </c>
       <c r="F22" t="n">
-        <v>185.3959259064399</v>
+        <v>262.3272516552875</v>
       </c>
       <c r="G22" t="n">
-        <v>185.3959259064399</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="H22" t="n">
-        <v>185.3959259064399</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I22" t="n">
         <v>96.73597668111518</v>
@@ -5932,28 +5932,28 @@
         <v>2713.395586583915</v>
       </c>
       <c r="R22" t="n">
-        <v>2691.977765289286</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="S22" t="n">
-        <v>2532.736396587283</v>
+        <v>2695.15641754123</v>
       </c>
       <c r="T22" t="n">
-        <v>2286.856950165738</v>
+        <v>2449.276971119685</v>
       </c>
       <c r="U22" t="n">
-        <v>2093.912644623943</v>
+        <v>2170.84397037279</v>
       </c>
       <c r="V22" t="n">
-        <v>1806.957136494374</v>
+        <v>1883.888462243221</v>
       </c>
       <c r="W22" t="n">
-        <v>1534.930732080665</v>
+        <v>1611.862057829513</v>
       </c>
       <c r="X22" t="n">
-        <v>1289.538977414078</v>
+        <v>1366.470303162925</v>
       </c>
       <c r="Y22" t="n">
-        <v>1062.119306728186</v>
+        <v>1139.050632477033</v>
       </c>
     </row>
     <row r="23">
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>811.7546776883919</v>
+        <v>1098.710185817961</v>
       </c>
       <c r="C25" t="n">
-        <v>639.1929661716168</v>
+        <v>926.1484743011862</v>
       </c>
       <c r="D25" t="n">
-        <v>639.1929661716168</v>
+        <v>760.2704815027089</v>
       </c>
       <c r="E25" t="n">
-        <v>469.4349624223541</v>
+        <v>590.5124777534461</v>
       </c>
       <c r="F25" t="n">
-        <v>469.4349624223541</v>
+        <v>413.8054237152023</v>
       </c>
       <c r="G25" t="n">
-        <v>303.8436874481818</v>
+        <v>248.2141487410301</v>
       </c>
       <c r="H25" t="n">
-        <v>163.9415131385563</v>
+        <v>108.3119744314046</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6181,16 +6181,16 @@
         <v>2035.366634303136</v>
       </c>
       <c r="V25" t="n">
-        <v>1748.411126173567</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="W25" t="n">
-        <v>1476.384721759858</v>
+        <v>1763.340229889428</v>
       </c>
       <c r="X25" t="n">
-        <v>1230.992967093271</v>
+        <v>1517.94847522284</v>
       </c>
       <c r="Y25" t="n">
-        <v>1003.573296407379</v>
+        <v>1290.528804536948</v>
       </c>
     </row>
     <row r="26">
@@ -6224,28 +6224,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J26" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K26" t="n">
-        <v>775.0235620688169</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L26" t="n">
-        <v>1850.083528321676</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M26" t="n">
-        <v>3007.131363532227</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N26" t="n">
-        <v>4132.862346968674</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O26" t="n">
-        <v>5113.04201353898</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P26" t="n">
-        <v>5113.04201353898</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q26" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R26" t="n">
         <v>5113.04201353898</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C28" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D28" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E28" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F28" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G28" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H28" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6406,28 +6406,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R28" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S28" t="n">
-        <v>2718.920450173579</v>
+        <v>2697.502628878952</v>
       </c>
       <c r="T28" t="n">
-        <v>2683.3639582443</v>
+        <v>2451.623182457407</v>
       </c>
       <c r="U28" t="n">
-        <v>2404.930957497405</v>
+        <v>2173.190181710512</v>
       </c>
       <c r="V28" t="n">
-        <v>2117.975449367836</v>
+        <v>1886.234673580943</v>
       </c>
       <c r="W28" t="n">
-        <v>1845.949044954128</v>
+        <v>1614.208269167234</v>
       </c>
       <c r="X28" t="n">
-        <v>1600.55729028754</v>
+        <v>1368.816514500647</v>
       </c>
       <c r="Y28" t="n">
-        <v>1373.137619601648</v>
+        <v>1141.396843814755</v>
       </c>
     </row>
     <row r="29">
@@ -6543,19 +6543,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K30" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L30" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M30" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N30" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O30" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P30" t="n">
         <v>1107.588885023173</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>952.7568773477108</v>
+        <v>915.9519976190925</v>
       </c>
       <c r="C31" t="n">
-        <v>780.1951658309357</v>
+        <v>743.3902861023175</v>
       </c>
       <c r="D31" t="n">
-        <v>614.3171730324584</v>
+        <v>577.5122933038401</v>
       </c>
       <c r="E31" t="n">
-        <v>444.5591692831957</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="F31" t="n">
-        <v>267.852115244952</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G31" t="n">
-        <v>102.2608402707796</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H31" t="n">
         <v>102.2608402707796</v>
@@ -6646,25 +6646,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S31" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T31" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U31" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V31" t="n">
-        <v>1889.413325832886</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W31" t="n">
-        <v>1617.386921419177</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X31" t="n">
-        <v>1371.99516675259</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y31" t="n">
-        <v>1144.575496066698</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="32">
@@ -6707,7 +6707,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M32" t="n">
-        <v>2588.899621423627</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N32" t="n">
         <v>2588.899621423627</v>
@@ -6780,19 +6780,19 @@
         <v>452.8828383974496</v>
       </c>
       <c r="K33" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="L33" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="M33" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="N33" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="O33" t="n">
-        <v>1107.588885023173</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="P33" t="n">
         <v>1107.588885023173</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>952.7568773477108</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="C34" t="n">
-        <v>780.1951658309357</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D34" t="n">
-        <v>614.3171730324584</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E34" t="n">
-        <v>444.5591692831957</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F34" t="n">
-        <v>267.852115244952</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G34" t="n">
-        <v>102.2608402707796</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H34" t="n">
         <v>102.2608402707796</v>
@@ -6883,25 +6883,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T34" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U34" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V34" t="n">
-        <v>1889.413325832886</v>
+        <v>1748.411126173567</v>
       </c>
       <c r="W34" t="n">
-        <v>1617.386921419177</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X34" t="n">
-        <v>1371.99516675259</v>
+        <v>1230.992967093271</v>
       </c>
       <c r="Y34" t="n">
-        <v>1144.575496066698</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="35">
@@ -6911,25 +6911,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2528.90004765179</v>
+        <v>2528.900047651789</v>
       </c>
       <c r="C35" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D35" t="n">
-        <v>1654.847790009658</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E35" t="n">
-        <v>1221.073045167953</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771604</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G35" t="n">
-        <v>391.8077842004243</v>
+        <v>391.8077842004232</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436392</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
@@ -6944,43 +6944,43 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M35" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="N35" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O35" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P35" t="n">
         <v>4397.38916282733</v>
       </c>
       <c r="Q35" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R35" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.04201353898</v>
       </c>
       <c r="S35" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722817</v>
       </c>
       <c r="T35" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595856</v>
       </c>
       <c r="U35" t="n">
-        <v>4550.100609912874</v>
+        <v>4550.100609912873</v>
       </c>
       <c r="V35" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846699</v>
       </c>
       <c r="W35" t="n">
         <v>3782.628205257733</v>
       </c>
       <c r="X35" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837043</v>
       </c>
       <c r="Y35" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="36">
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>790.336856393764</v>
+        <v>952.7568773477109</v>
       </c>
       <c r="C37" t="n">
-        <v>702.9771222577833</v>
+        <v>780.1951658309358</v>
       </c>
       <c r="D37" t="n">
-        <v>702.9771222577833</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E37" t="n">
-        <v>533.2191185085205</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F37" t="n">
-        <v>356.5120644702766</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G37" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H37" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I37" t="n">
         <v>102.2608402707796</v>
@@ -7117,28 +7117,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2538.261260176948</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T37" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U37" t="n">
-        <v>2013.948813008509</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V37" t="n">
-        <v>1726.993304878939</v>
+        <v>1889.413325832886</v>
       </c>
       <c r="W37" t="n">
-        <v>1454.966900465231</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X37" t="n">
-        <v>1209.575145798643</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y37" t="n">
-        <v>982.1554751127512</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="38">
@@ -7148,10 +7148,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.900047651791</v>
       </c>
       <c r="C38" t="n">
-        <v>2090.757574835213</v>
+        <v>2090.757574835212</v>
       </c>
       <c r="D38" t="n">
         <v>1654.847790009657</v>
@@ -7160,64 +7160,64 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F38" t="n">
-        <v>793.2056155771602</v>
+        <v>793.2056155771595</v>
       </c>
       <c r="G38" t="n">
-        <v>391.8077842004241</v>
+        <v>391.8077842004234</v>
       </c>
       <c r="H38" t="n">
         <v>102.6776296436396</v>
       </c>
       <c r="I38" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J38" t="n">
-        <v>537.5155277236975</v>
+        <v>537.5155277236976</v>
       </c>
       <c r="K38" t="n">
-        <v>1371.865819681875</v>
+        <v>1371.865819681876</v>
       </c>
       <c r="L38" t="n">
-        <v>2446.925785934734</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="M38" t="n">
-        <v>2446.925785934734</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="N38" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423629</v>
       </c>
       <c r="O38" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993935</v>
       </c>
       <c r="P38" t="n">
-        <v>4397.38916282733</v>
+        <v>4397.389162827331</v>
       </c>
       <c r="Q38" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785926</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.042013538982</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722818</v>
+        <v>5029.390139722819</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595857</v>
+        <v>4809.322912595858</v>
       </c>
       <c r="U38" t="n">
         <v>4550.100609912874</v>
       </c>
       <c r="V38" t="n">
-        <v>4187.4836598467</v>
+        <v>4187.483659846701</v>
       </c>
       <c r="W38" t="n">
-        <v>3782.628205257733</v>
+        <v>3782.628205257734</v>
       </c>
       <c r="X38" t="n">
-        <v>3363.485741837044</v>
+        <v>3363.485741837045</v>
       </c>
       <c r="Y38" t="n">
-        <v>2955.199618136698</v>
+        <v>2955.199618136699</v>
       </c>
     </row>
     <row r="39">
@@ -7242,10 +7242,10 @@
         <v>229.3815821883833</v>
       </c>
       <c r="G39" t="n">
-        <v>143.9964924545671</v>
+        <v>143.9964924545672</v>
       </c>
       <c r="H39" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I39" t="n">
         <v>128.3245134312372</v>
@@ -7306,13 +7306,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>952.7568773477108</v>
+        <v>811.7546776883919</v>
       </c>
       <c r="C40" t="n">
-        <v>780.1951658309358</v>
+        <v>639.1929661716167</v>
       </c>
       <c r="D40" t="n">
-        <v>614.3171730324584</v>
+        <v>473.3149733731394</v>
       </c>
       <c r="E40" t="n">
         <v>444.5591692831957</v>
@@ -7321,22 +7321,22 @@
         <v>267.852115244952</v>
       </c>
       <c r="G40" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="H40" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I40" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J40" t="n">
         <v>188.8405254354695</v>
       </c>
       <c r="K40" t="n">
-        <v>463.5989800066051</v>
+        <v>463.5989800066049</v>
       </c>
       <c r="L40" t="n">
-        <v>881.8088617745663</v>
+        <v>881.808861774566</v>
       </c>
       <c r="M40" t="n">
         <v>1341.292728955479</v>
@@ -7357,25 +7357,25 @@
         <v>2718.920450173579</v>
       </c>
       <c r="S40" t="n">
-        <v>2700.681281130895</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T40" t="n">
-        <v>2454.80183470935</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U40" t="n">
-        <v>2176.368833962455</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V40" t="n">
-        <v>1889.413325832886</v>
+        <v>1748.411126173567</v>
       </c>
       <c r="W40" t="n">
-        <v>1617.386921419177</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X40" t="n">
-        <v>1371.99516675259</v>
+        <v>1230.992967093271</v>
       </c>
       <c r="Y40" t="n">
-        <v>1144.575496066698</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="41">
@@ -7397,49 +7397,49 @@
         <v>1221.073045167952</v>
       </c>
       <c r="F41" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771598</v>
       </c>
       <c r="G41" t="n">
-        <v>391.8077842004234</v>
+        <v>391.8077842004236</v>
       </c>
       <c r="H41" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436397</v>
       </c>
       <c r="I41" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J41" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236976</v>
       </c>
       <c r="K41" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681876</v>
       </c>
       <c r="L41" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="M41" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="N41" t="n">
-        <v>2588.899621423627</v>
+        <v>2588.899621423629</v>
       </c>
       <c r="O41" t="n">
-        <v>3569.079287993933</v>
+        <v>3569.079287993935</v>
       </c>
       <c r="P41" t="n">
-        <v>4397.38916282733</v>
+        <v>4397.389162827331</v>
       </c>
       <c r="Q41" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785926</v>
       </c>
       <c r="R41" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538982</v>
       </c>
       <c r="S41" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722819</v>
       </c>
       <c r="T41" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595858</v>
       </c>
       <c r="U41" t="n">
         <v>4550.100609912873</v>
@@ -7448,13 +7448,13 @@
         <v>4187.483659846699</v>
       </c>
       <c r="W41" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X41" t="n">
         <v>3363.485741837043</v>
       </c>
       <c r="Y41" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="42">
@@ -7479,10 +7479,10 @@
         <v>229.3815821883833</v>
       </c>
       <c r="G42" t="n">
-        <v>143.9964924545671</v>
+        <v>143.9964924545672</v>
       </c>
       <c r="H42" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I42" t="n">
         <v>128.3245134312372</v>
@@ -7543,34 +7543,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>834.8539430951541</v>
+        <v>1015.441008084184</v>
       </c>
       <c r="C43" t="n">
-        <v>662.2922315783794</v>
+        <v>842.8792965674088</v>
       </c>
       <c r="D43" t="n">
-        <v>496.4142387799021</v>
+        <v>842.8792965674088</v>
       </c>
       <c r="E43" t="n">
-        <v>496.4142387799021</v>
+        <v>673.121292818146</v>
       </c>
       <c r="F43" t="n">
-        <v>496.4142387799021</v>
+        <v>496.4142387799022</v>
       </c>
       <c r="G43" t="n">
-        <v>330.8229638057297</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H43" t="n">
         <v>190.9207894961043</v>
       </c>
       <c r="I43" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J43" t="n">
         <v>188.8405254354695</v>
       </c>
       <c r="K43" t="n">
-        <v>463.598980006605</v>
+        <v>463.5989800066051</v>
       </c>
       <c r="L43" t="n">
         <v>881.8088617745661</v>
@@ -7591,28 +7591,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R43" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S43" t="n">
-        <v>2538.261260176948</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T43" t="n">
-        <v>2336.898900456793</v>
+        <v>2517.485965445822</v>
       </c>
       <c r="U43" t="n">
-        <v>2058.465899709899</v>
+        <v>2239.052964698928</v>
       </c>
       <c r="V43" t="n">
-        <v>1771.510391580329</v>
+        <v>1952.097456569358</v>
       </c>
       <c r="W43" t="n">
-        <v>1499.483987166621</v>
+        <v>1680.07105215565</v>
       </c>
       <c r="X43" t="n">
-        <v>1254.092232500033</v>
+        <v>1434.679297489062</v>
       </c>
       <c r="Y43" t="n">
-        <v>1026.672561814141</v>
+        <v>1207.259626803171</v>
       </c>
     </row>
     <row r="44">
@@ -7628,70 +7628,70 @@
         <v>2090.757574835212</v>
       </c>
       <c r="D44" t="n">
-        <v>1654.847790009656</v>
+        <v>1654.847790009657</v>
       </c>
       <c r="E44" t="n">
-        <v>1221.073045167951</v>
+        <v>1221.073045167952</v>
       </c>
       <c r="F44" t="n">
-        <v>793.2056155771593</v>
+        <v>793.2056155771597</v>
       </c>
       <c r="G44" t="n">
         <v>391.8077842004232</v>
       </c>
       <c r="H44" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436397</v>
       </c>
       <c r="I44" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J44" t="n">
-        <v>537.5155277236975</v>
+        <v>537.5155277236976</v>
       </c>
       <c r="K44" t="n">
-        <v>1371.865819681875</v>
+        <v>1371.865819681876</v>
       </c>
       <c r="L44" t="n">
-        <v>2446.925785934734</v>
+        <v>2446.925785934735</v>
       </c>
       <c r="M44" t="n">
-        <v>2446.925785934734</v>
+        <v>2588.899621423629</v>
       </c>
       <c r="N44" t="n">
-        <v>2588.899621423628</v>
+        <v>2588.899621423629</v>
       </c>
       <c r="O44" t="n">
-        <v>3569.079287993934</v>
+        <v>3569.079287993935</v>
       </c>
       <c r="P44" t="n">
-        <v>4397.38916282733</v>
+        <v>4397.389162827331</v>
       </c>
       <c r="Q44" t="n">
-        <v>4943.887948785925</v>
+        <v>4943.887948785926</v>
       </c>
       <c r="R44" t="n">
-        <v>5113.042013538981</v>
+        <v>5113.042013538982</v>
       </c>
       <c r="S44" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T44" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U44" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V44" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W44" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X44" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y44" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="45">
@@ -7716,10 +7716,10 @@
         <v>229.3815821883833</v>
       </c>
       <c r="G45" t="n">
-        <v>143.9964924545671</v>
+        <v>143.9964924545672</v>
       </c>
       <c r="H45" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I45" t="n">
         <v>128.3245134312372</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1181.319000882661</v>
+        <v>811.7546776883909</v>
       </c>
       <c r="C46" t="n">
-        <v>1008.757289365886</v>
+        <v>811.7546776883909</v>
       </c>
       <c r="D46" t="n">
-        <v>842.8792965674086</v>
+        <v>645.8766848899133</v>
       </c>
       <c r="E46" t="n">
-        <v>673.1212928181459</v>
+        <v>476.1186811406503</v>
       </c>
       <c r="F46" t="n">
-        <v>496.4142387799021</v>
+        <v>407.7542895545777</v>
       </c>
       <c r="G46" t="n">
-        <v>330.8229638057298</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H46" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="I46" t="n">
-        <v>102.2608402707796</v>
+        <v>102.2608402707797</v>
       </c>
       <c r="J46" t="n">
-        <v>188.8405254354695</v>
+        <v>188.8405254354694</v>
       </c>
       <c r="K46" t="n">
-        <v>463.5989800066051</v>
+        <v>463.5989800066049</v>
       </c>
       <c r="L46" t="n">
-        <v>881.8088617745661</v>
+        <v>881.8088617745659</v>
       </c>
       <c r="M46" t="n">
         <v>1341.292728955479</v>
       </c>
       <c r="N46" t="n">
-        <v>1783.551532113124</v>
+        <v>1783.551532113123</v>
       </c>
       <c r="O46" t="n">
         <v>2203.220781338905</v>
       </c>
       <c r="P46" t="n">
-        <v>2550.727675309247</v>
+        <v>2550.727675309246</v>
       </c>
       <c r="Q46" t="n">
         <v>2718.920450173579</v>
       </c>
       <c r="R46" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S46" t="n">
-        <v>2538.261260176947</v>
+        <v>2559.679081471575</v>
       </c>
       <c r="T46" t="n">
-        <v>2292.381813755403</v>
+        <v>2313.79963505003</v>
       </c>
       <c r="U46" t="n">
-        <v>2159.539202830818</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V46" t="n">
-        <v>1872.583694701249</v>
+        <v>1748.411126173566</v>
       </c>
       <c r="W46" t="n">
-        <v>1600.55729028754</v>
+        <v>1476.384721759857</v>
       </c>
       <c r="X46" t="n">
-        <v>1600.55729028754</v>
+        <v>1230.99296709327</v>
       </c>
       <c r="Y46" t="n">
-        <v>1373.137619601648</v>
+        <v>1003.573296407378</v>
       </c>
     </row>
   </sheetData>
@@ -7976,10 +7976,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>236.2898988798406</v>
+        <v>613.8410568773331</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -7991,13 +7991,13 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>424.2958575201044</v>
+        <v>40.34758805803699</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>613.8410568773331</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8058,10 +8058,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>613.8410568773331</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>47.4781821385493</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8073,10 +8073,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8137,22 +8137,22 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>320.0858880793245</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>308.3808099909297</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -8213,13 +8213,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -8231,10 +8231,10 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697543</v>
@@ -8295,10 +8295,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8374,25 +8374,25 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>321.5599966225773</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8450,10 +8450,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>270.2148169866497</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>459.6491932314105</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -8465,13 +8465,13 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P8" t="n">
-        <v>459.6491932314105</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>459.6491932314107</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697543</v>
@@ -8532,7 +8532,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>459.6491932314106</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8541,7 +8541,7 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>288.2218006662688</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -8550,7 +8550,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>459.6491932314107</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8608,19 +8608,19 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>452.7737753926393</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
         <v>423.9083325512944</v>
@@ -8699,7 +8699,7 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>40.81776196807141</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831379</v>
@@ -8711,7 +8711,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>40.81776196807277</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8948,7 +8948,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R14" t="n">
-        <v>40.81776196807095</v>
+        <v>40.81776196807186</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -9170,7 +9170,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>40.81776196807232</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -9185,7 +9185,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
-        <v>40.81776196807186</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9407,7 +9407,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>40.81776196807232</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -9422,7 +9422,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
-        <v>40.81776196807186</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9872,31 +9872,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -10191,22 +10191,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L30" t="n">
-        <v>0</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0</v>
-      </c>
-      <c r="O30" t="n">
-        <v>0</v>
-      </c>
-      <c r="P30" t="n">
-        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>546.2009481132077</v>
@@ -10355,10 +10355,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
@@ -10428,22 +10428,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L33" t="n">
-        <v>0</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" t="n">
-        <v>0</v>
-      </c>
-      <c r="O33" t="n">
-        <v>0</v>
-      </c>
-      <c r="P33" t="n">
-        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>546.2009481132077</v>
@@ -10592,10 +10592,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N35" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831379</v>
@@ -10832,7 +10832,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>143.4079146352456</v>
+        <v>143.407914635246</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
         <v>842.7780726850283</v>
@@ -11069,7 +11069,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>583.0591140826364</v>
+        <v>143.407914635246</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831379</v>
@@ -11303,10 +11303,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>143.407914635246</v>
       </c>
       <c r="N44" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831379</v>
@@ -23264,7 +23264,7 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>268.0111327346211</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>50.14457787893116</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23309,7 +23309,7 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
         <v>0</v>
@@ -23428,7 +23428,7 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="H13" t="n">
         <v>138.5031525665292</v>
@@ -23464,7 +23464,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>139.5921776627262</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23510,7 +23510,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>185.1957776566216</v>
+        <v>268.0111327346222</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23543,7 +23543,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23659,7 +23659,7 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>34.67467827192618</v>
+        <v>18.3192924155459</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
@@ -23671,7 +23671,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23701,10 +23701,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T16" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23735,7 +23735,7 @@
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>184.7831561774893</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23750,7 +23750,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23798,7 +23798,7 @@
         <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>185.1957776566205</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -23902,13 +23902,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>139.5921776627254</v>
       </c>
       <c r="H19" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,10 +23938,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>69.71657238081409</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23981,13 +23981,13 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>49.73195639979889</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -24020,7 +24020,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -24035,7 +24035,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>268.0111327346218</v>
       </c>
     </row>
     <row r="21">
@@ -24139,13 +24139,13 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,16 +24172,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>139.5921776627258</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>84.63380825304893</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24367,13 +24367,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24382,7 +24382,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>26.70948359397252</v>
+        <v>81.78272691405269</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24421,7 +24421,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24598,7 +24598,7 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>3.146865729423393</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
@@ -24616,10 +24616,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24646,13 +24646,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T28" t="n">
-        <v>208.2197249473433</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>103.1553467313938</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24847,13 +24847,13 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>87.77334973307141</v>
@@ -24886,7 +24886,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S31" t="n">
-        <v>139.5921776627262</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
@@ -25072,10 +25072,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>107.2592358276475</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
         <v>0</v>
@@ -25090,7 +25090,7 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>87.77334973307141</v>
@@ -25123,7 +25123,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>139.5921776627259</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25312,10 +25312,10 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>84.34995760698641</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -25330,7 +25330,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,10 +25357,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>139.5921776627256</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25555,7 +25555,7 @@
         <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>139.5921776627259</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
@@ -25597,7 +25597,7 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S40" t="n">
-        <v>139.5921776627253</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25789,13 +25789,13 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
@@ -25831,13 +25831,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T43" t="n">
-        <v>44.07191583437642</v>
+        <v>44.00051207685006</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26023,7 +26023,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -26032,7 +26032,7 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>107.2592358276497</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26041,7 +26041,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26077,7 +26077,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>144.1344859240865</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26086,7 +26086,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>703123.6624528824</v>
+        <v>705067.5154832199</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>703123.6624528824</v>
+        <v>705617.9628644158</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>703486.2234092559</v>
+        <v>705617.9628644158</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>670075.7693826588</v>
+        <v>670075.769382659</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>670075.7693826588</v>
+        <v>670075.7693826589</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>670075.769382659</v>
+        <v>670075.7693826589</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>670075.7693826589</v>
+        <v>670075.769382659</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>698353.732558268</v>
+        <v>698353.7325582681</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>698353.7325582681</v>
+        <v>698353.732558268</v>
       </c>
     </row>
     <row r="12">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>698353.7325582682</v>
+        <v>698353.7325582681</v>
       </c>
     </row>
   </sheetData>
@@ -26320,7 +26320,7 @@
         <v>241266.2939506838</v>
       </c>
       <c r="E2" t="n">
-        <v>227485.7540872543</v>
+        <v>227485.7540872544</v>
       </c>
       <c r="F2" t="n">
         <v>227485.7540872543</v>
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>142191.3006597099</v>
+        <v>205712.2565039025</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>17340.54437390705</v>
       </c>
       <c r="D3" t="n">
-        <v>10981.80667200304</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>223799.2937520269</v>
+        <v>161735.0752101144</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>18364.71563283952</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449902</v>
+        <v>160607.829485613</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>13814.00856784545</v>
       </c>
       <c r="L3" t="n">
-        <v>8947.611088510197</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>186790.9866104673</v>
+        <v>134989.9446130035</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,19 +26415,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>175300.2398651109</v>
+        <v>133864.3835971967</v>
       </c>
       <c r="C4" t="n">
-        <v>175300.239865111</v>
+        <v>122130.8532251352</v>
       </c>
       <c r="D4" t="n">
-        <v>167571.7627414874</v>
+        <v>122130.8532251352</v>
       </c>
       <c r="E4" t="n">
         <v>13668.38414064833</v>
       </c>
       <c r="F4" t="n">
-        <v>13668.38414064832</v>
+        <v>13668.38414064833</v>
       </c>
       <c r="G4" t="n">
         <v>13668.38414064833</v>
@@ -26448,16 +26448,16 @@
         <v>14245.20557049264</v>
       </c>
       <c r="M4" t="n">
+        <v>14245.20557049264</v>
+      </c>
+      <c r="N4" t="n">
         <v>14245.2055704926</v>
       </c>
-      <c r="N4" t="n">
-        <v>14245.20557049264</v>
-      </c>
       <c r="O4" t="n">
-        <v>14245.20557049264</v>
+        <v>14245.20557049259</v>
       </c>
       <c r="P4" t="n">
-        <v>14245.20557049264</v>
+        <v>14245.20557049258</v>
       </c>
     </row>
     <row r="5">
@@ -26467,16 +26467,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59424.78813722234</v>
+        <v>70949.13625814185</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>61574.27094846976</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
-        <v>73519.34227764752</v>
+        <v>73519.34227764753</v>
       </c>
       <c r="F5" t="n">
         <v>73519.34227764752</v>
@@ -26503,10 +26503,10 @@
         <v>77718.23860579252</v>
       </c>
       <c r="N5" t="n">
+        <v>77718.23860579253</v>
+      </c>
+      <c r="O5" t="n">
         <v>77718.23860579252</v>
-      </c>
-      <c r="O5" t="n">
-        <v>77718.2386057925</v>
       </c>
       <c r="P5" t="n">
         <v>77718.23860579252</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-135650.0347113594</v>
+        <v>-169259.4824085573</v>
       </c>
       <c r="C6" t="n">
-        <v>6541.265948350549</v>
+        <v>27582.37178988382</v>
       </c>
       <c r="D6" t="n">
-        <v>1138.453588723612</v>
+        <v>44922.9161637909</v>
       </c>
       <c r="E6" t="n">
-        <v>-83501.26608306842</v>
+        <v>-21513.60609595276</v>
       </c>
       <c r="F6" t="n">
-        <v>140298.0276689585</v>
+        <v>140221.4691141617</v>
       </c>
       <c r="G6" t="n">
-        <v>140298.0276689585</v>
+        <v>140221.4691141616</v>
       </c>
       <c r="H6" t="n">
-        <v>140298.0276689585</v>
+        <v>140221.4691141617</v>
       </c>
       <c r="I6" t="n">
-        <v>126757.7530526839</v>
+        <v>126734.5287133012</v>
       </c>
       <c r="J6" t="n">
-        <v>34108.00334053318</v>
+        <v>-15508.58513947223</v>
       </c>
       <c r="K6" t="n">
-        <v>145122.4686855234</v>
+        <v>131285.2357782953</v>
       </c>
       <c r="L6" t="n">
-        <v>136174.8575970132</v>
+        <v>145099.2443461407</v>
       </c>
       <c r="M6" t="n">
-        <v>-41668.51792494394</v>
+        <v>10109.29973313723</v>
       </c>
       <c r="N6" t="n">
-        <v>145122.4686855233</v>
+        <v>145099.2443461407</v>
       </c>
       <c r="O6" t="n">
-        <v>145122.4686855233</v>
+        <v>145099.2443461409</v>
       </c>
       <c r="P6" t="n">
-        <v>145122.4686855233</v>
+        <v>145099.2443461407</v>
       </c>
     </row>
   </sheetData>
@@ -26787,19 +26787,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773331</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
-        <v>459.6491932314105</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
-        <v>1209.199708513939</v>
+        <v>1209.19970851394</v>
       </c>
       <c r="F4" t="n">
-        <v>1209.199708513939</v>
+        <v>1209.19970851394</v>
       </c>
       <c r="G4" t="n">
         <v>1209.19970851394</v>
@@ -26823,13 +26823,13 @@
         <v>1278.260503384745</v>
       </c>
       <c r="N4" t="n">
-        <v>1278.260503384745</v>
+        <v>1278.260503384746</v>
       </c>
       <c r="O4" t="n">
-        <v>1278.260503384745</v>
+        <v>1278.260503384746</v>
       </c>
       <c r="P4" t="n">
-        <v>1278.260503384745</v>
+        <v>1278.260503384746</v>
       </c>
     </row>
   </sheetData>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773331</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>53.67414973052382</v>
       </c>
       <c r="D4" t="n">
-        <v>35.35333571130619</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>749.5505152825289</v>
+        <v>541.6845019060829</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>69.06079487080569</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773331</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>53.67414973052382</v>
       </c>
       <c r="L4" t="n">
-        <v>35.35333571130619</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>749.5505152825289</v>
+        <v>541.6845019060829</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773331</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>53.67414973052382</v>
       </c>
       <c r="L4" t="n">
-        <v>35.35333571130619</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>749.5505152825289</v>
+        <v>541.6845019060829</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,22 +27376,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>400</v>
+        <v>175.9373648393899</v>
       </c>
       <c r="C2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>400</v>
       </c>
       <c r="F2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>111.5243745049234</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>286.2388530112159</v>
@@ -27439,13 +27439,13 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="3">
@@ -27534,7 +27534,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27549,13 +27549,13 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>30.36599412148223</v>
       </c>
       <c r="I4" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,19 +27585,19 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>85.74027399508992</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27616,22 +27616,22 @@
         <v>400</v>
       </c>
       <c r="C5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>7.254829457195569</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>5.14113987318342</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>98.71578369541305</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0.4126214791313976</v>
@@ -27679,10 +27679,10 @@
         <v>400</v>
       </c>
       <c r="X5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>256.0811030342888</v>
       </c>
     </row>
     <row r="6">
@@ -27771,19 +27771,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>107.8961383759259</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -27792,7 +27792,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,22 +27819,22 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>22.23190701434993</v>
       </c>
       <c r="W7" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>376.5286747343861</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>400</v>
@@ -27859,19 +27859,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>397.3838530629687</v>
       </c>
       <c r="H8" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27904,22 +27904,22 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T8" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>330.9903590252653</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
     </row>
     <row r="9">
@@ -28008,10 +28008,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28023,7 +28023,7 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -28056,16 +28056,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>59.3157210642749</v>
+        <v>141.6500182959535</v>
       </c>
       <c r="U10" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28077,7 +28077,7 @@
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -30223,7 +30223,7 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>-9.003997547551989e-13</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0</v>
+        <v>-8.809331958148681e-14</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>-8.809331958148681e-14</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>-8.809331958148681e-14</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>-8.809331958148681e-14</v>
       </c>
       <c r="F41" t="n">
-        <v>0</v>
+        <v>-8.809331958148681e-14</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>-8.809331958148681e-14</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>-8.809331958148681e-14</v>
       </c>
       <c r="I41" t="n">
-        <v>0</v>
+        <v>-8.809331958148681e-14</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30508,22 +30508,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>-8.809331958148681e-14</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>-8.809331958148681e-14</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>-8.809331958148681e-14</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>-8.809331958148681e-14</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>-8.809331958148681e-14</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>-8.809331958148681e-14</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>0</v>
+        <v>-8.809331958148681e-14</v>
       </c>
       <c r="C44" t="n">
-        <v>0</v>
+        <v>-8.809331958148681e-14</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>-8.809331958148681e-14</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>-8.809331958148681e-14</v>
       </c>
       <c r="F44" t="n">
-        <v>0</v>
+        <v>-8.809331958148681e-14</v>
       </c>
       <c r="G44" t="n">
-        <v>0</v>
+        <v>-8.809331958148681e-14</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>-8.809331958148681e-14</v>
       </c>
       <c r="I44" t="n">
-        <v>0</v>
+        <v>-8.809331958148681e-14</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>-8.809331958148681e-14</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>-8.809331958148681e-14</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>-8.809331958148681e-14</v>
       </c>
       <c r="V44" t="n">
-        <v>0</v>
+        <v>-8.809331958148681e-14</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>-8.809331958148681e-14</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>-8.809331958148681e-14</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>-8.809331958148681e-14</v>
       </c>
     </row>
     <row r="45">
@@ -34696,10 +34696,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>236.2898988798406</v>
+        <v>613.8410568773331</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -34711,13 +34711,13 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>424.2958575201044</v>
+        <v>40.34758805803699</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>613.8410568773331</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34772,16 +34772,16 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>26.32694258632081</v>
+        <v>26.3269425863208</v>
       </c>
       <c r="J3" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>613.8410568773331</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>47.4781821385493</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34793,10 +34793,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34854,25 +34854,25 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908065</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>320.0858880793245</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O4" t="n">
         <v>423.9083325512943</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>308.3808099909297</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -34933,13 +34933,13 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>236.2898988798406</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
@@ -34951,10 +34951,10 @@
         <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
         <v>170.8626916697544</v>
@@ -35015,10 +35015,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35033,7 +35033,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201043</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>424.2958575201044</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>321.5599966225773</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35170,10 +35170,10 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>270.2148169866497</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K8" t="n">
-        <v>459.6491932314105</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -35185,13 +35185,13 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P8" t="n">
-        <v>459.6491932314105</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>459.6491932314107</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
         <v>170.8626916697544</v>
@@ -35252,7 +35252,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>459.6491932314106</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35261,7 +35261,7 @@
         <v>0</v>
       </c>
       <c r="N9" t="n">
-        <v>288.2218006662688</v>
+        <v>0</v>
       </c>
       <c r="O9" t="n">
         <v>0</v>
@@ -35270,7 +35270,7 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>459.6491932314107</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,25 +35328,25 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>452.7737753926393</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
         <v>169.8916917821539</v>
@@ -35419,19 +35419,19 @@
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>40.81776196807141</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P11" t="n">
-        <v>836.6766412458546</v>
+        <v>836.6766412458551</v>
       </c>
       <c r="Q11" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R11" t="n">
-        <v>0</v>
+        <v>40.81776196807277</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35565,22 +35565,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K13" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M13" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N13" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O13" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P13" t="n">
         <v>351.017064616507</v>
@@ -35668,7 +35668,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R14" t="n">
-        <v>40.81776196807095</v>
+        <v>40.81776196807186</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L16" t="n">
-        <v>422.4342240080414</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N16" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O16" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P16" t="n">
         <v>351.017064616507</v>
@@ -35890,7 +35890,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>40.81776196807232</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -35899,13 +35899,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P17" t="n">
-        <v>836.6766412458551</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q17" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
-        <v>40.81776196807186</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -36127,7 +36127,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
-        <v>0</v>
+        <v>40.81776196807232</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
@@ -36136,13 +36136,13 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P20" t="n">
-        <v>836.6766412458551</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q20" t="n">
         <v>552.0189757157523</v>
       </c>
       <c r="R20" t="n">
-        <v>40.81776196807186</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K26" t="n">
-        <v>679.5583048465023</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P26" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q26" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36759,19 +36759,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M28" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645588</v>
       </c>
       <c r="N28" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O28" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P28" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q28" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36911,22 +36911,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K30" t="n">
+        <v>0</v>
+      </c>
+      <c r="L30" t="n">
+        <v>0</v>
+      </c>
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="n">
+        <v>0</v>
+      </c>
+      <c r="O30" t="n">
+        <v>0</v>
+      </c>
+      <c r="P30" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L30" t="n">
-        <v>0</v>
-      </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="n">
-        <v>0</v>
-      </c>
-      <c r="O30" t="n">
-        <v>0</v>
-      </c>
-      <c r="P30" t="n">
-        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>546.2009481132077</v>
@@ -37075,10 +37075,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N32" t="n">
-        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
@@ -37148,22 +37148,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K33" t="n">
+        <v>0</v>
+      </c>
+      <c r="L33" t="n">
+        <v>0</v>
+      </c>
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="n">
+        <v>0</v>
+      </c>
+      <c r="O33" t="n">
+        <v>0</v>
+      </c>
+      <c r="P33" t="n">
         <v>661.3192390158824</v>
-      </c>
-      <c r="L33" t="n">
-        <v>0</v>
-      </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" t="n">
-        <v>0</v>
-      </c>
-      <c r="O33" t="n">
-        <v>0</v>
-      </c>
-      <c r="P33" t="n">
-        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>546.2009481132077</v>
@@ -37245,7 +37245,7 @@
         <v>351.017064616507</v>
       </c>
       <c r="Q34" t="n">
-        <v>169.8916917821534</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37312,10 +37312,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="N35" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>990.0804712831377</v>
@@ -37540,10 +37540,10 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>439.6511994473918</v>
+        <v>439.6511994473919</v>
       </c>
       <c r="K38" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
@@ -37552,7 +37552,7 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>143.4079146352456</v>
+        <v>143.407914635246</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
@@ -37619,7 +37619,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K39" t="n">
         <v>0</v>
@@ -37701,7 +37701,7 @@
         <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
-        <v>277.5337924960967</v>
+        <v>277.5337924960964</v>
       </c>
       <c r="L40" t="n">
         <v>422.4342240080415</v>
@@ -37713,7 +37713,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O40" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P40" t="n">
         <v>351.017064616507</v>
@@ -37777,7 +37777,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473919</v>
       </c>
       <c r="K41" t="n">
         <v>842.7780726850283</v>
@@ -37789,7 +37789,7 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>583.0591140826364</v>
+        <v>143.407914635246</v>
       </c>
       <c r="O41" t="n">
         <v>990.0804712831377</v>
@@ -37853,10 +37853,10 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J42" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
@@ -37935,13 +37935,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>422.4342240080415</v>
+        <v>422.4342240080414</v>
       </c>
       <c r="M43" t="n">
         <v>464.1251183645586</v>
@@ -37950,13 +37950,13 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P43" t="n">
         <v>351.017064616507</v>
       </c>
       <c r="Q43" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821534</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,19 +38014,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>439.6511994473918</v>
+        <v>439.6511994473919</v>
       </c>
       <c r="K44" t="n">
-        <v>842.7780726850282</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>0</v>
+        <v>143.407914635246</v>
       </c>
       <c r="N44" t="n">
-        <v>143.4079146352456</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831377</v>
@@ -38093,7 +38093,7 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J45" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908058</v>
       </c>
       <c r="K46" t="n">
-        <v>277.5337924960967</v>
+        <v>277.5337924960965</v>
       </c>
       <c r="L46" t="n">
         <v>422.4342240080414</v>
       </c>
       <c r="M46" t="n">
-        <v>464.1251183645588</v>
+        <v>464.1251183645586</v>
       </c>
       <c r="N46" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
-        <v>423.9083325512945</v>
+        <v>423.9083325512941</v>
       </c>
       <c r="P46" t="n">
-        <v>351.0170646165066</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q46" t="n">
-        <v>169.8916917821539</v>
+        <v>169.8916917821543</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
